--- a/doc/Results/CullingResults_MIX.xlsx
+++ b/doc/Results/CullingResults_MIX.xlsx
@@ -109,6 +109,1259 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling Time /</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Frustums (500 Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.7343499999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.857710000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.182499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.53501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.71515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.25089</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.19661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.71002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.993080000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.007250000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.142720000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.942780000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.041399999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.253119999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.5943</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34.455849999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.889749999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>60.067799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'500 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'500 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>15.112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.998059999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.544309999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.288220000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.203749999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.509700000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.068560000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.894649999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>87.558130000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.954139999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>117.179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>136.9837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>156.05549999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>174.04740000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.4041</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381.07690000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>569.07249999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="80259328"/>
+        <c:axId val="80257792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80259328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Frustums</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80257792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="80257792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80259328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Culling</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time / Number of Frustums (1000 Primitives)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$E$2:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>12.958690000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.237629999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.027920000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.50713</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.472629999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.622319999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.727689999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.007629999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.766660000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.639880000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.616579999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.74757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.19136</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.310860000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.01492</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.71172</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72.525859999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>94.068929999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1000 Primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'1000 Primitives'!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>22.624929999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.89331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59.154209999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.127170000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.964020000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114.4941</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132.92259999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>151.47620000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>169.03749999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.39160000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>233.90539999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>269.42610000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>309.75069999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>340.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378.86180000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="82985344"/>
+        <c:axId val="81934976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82985344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81934976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81934976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82985344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t BVH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$E$2:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>16.030830000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.507580000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.53079</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.71565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.748380000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.60521</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.868680000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.923169999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.437660000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.597059999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.719859999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45.354930000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.133760000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.487380000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.819299999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>106.1901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>155.34880000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>194.22239999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2500 primitives'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t Bruteforce</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2500 primitives'!$F$2:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>48.686459999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.0016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.47049999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>188.60040000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236.38470000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284.45069999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>329.26960000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>378.42570000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>423.1386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>474.5172</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560.2894</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="54825728"/>
+        <c:axId val="54819840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="54825728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Frustums</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54819840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="54819840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Culling Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="54825728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +1652,7 @@
   <dimension ref="D1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -658,6 +1911,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -666,7 +1920,7 @@
   <dimension ref="D1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -919,6 +2173,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -927,7 +2182,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,5 +2461,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>